--- a/fuentes/contenidos/grado10/guion06/Escaleta_LE_10_06.xlsx
+++ b/fuentes/contenidos/grado10/guion06/Escaleta_LE_10_06.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\Lenguaje\fuentes\contenidos\grado10\guion06\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25598" windowHeight="14243"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14000"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="245">
   <si>
     <t>Asignatura</t>
   </si>
@@ -761,6 +756,9 @@
   </si>
   <si>
     <t>LE_10_06_CO</t>
+  </si>
+  <si>
+    <t>Contexto social</t>
   </si>
 </sst>
 </file>
@@ -1240,16 +1238,37 @@
     <xf numFmtId="49" fontId="10" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1290,27 +1309,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="101">
@@ -1472,7 +1470,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1507,7 +1505,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1718,127 +1716,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.796875" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="60.796875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.19921875" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.06640625" style="36" customWidth="1"/>
-    <col min="7" max="7" width="25.796875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="6.3984375" style="36" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="60.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="36" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="36" customWidth="1"/>
     <col min="9" max="9" width="7" style="36" customWidth="1"/>
-    <col min="10" max="10" width="17.796875" style="21" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" style="21" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" style="21" customWidth="1"/>
-    <col min="12" max="12" width="17.46484375" style="21" customWidth="1"/>
+    <col min="12" max="12" width="17.5" style="21" customWidth="1"/>
     <col min="13" max="14" width="9.33203125" style="21" customWidth="1"/>
-    <col min="15" max="15" width="37.796875" style="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.46484375" style="36" customWidth="1"/>
-    <col min="17" max="17" width="6.46484375" style="36" customWidth="1"/>
-    <col min="18" max="18" width="5.19921875" style="21" customWidth="1"/>
-    <col min="19" max="19" width="24.265625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.83203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" style="36" customWidth="1"/>
+    <col min="17" max="17" width="6.5" style="36" customWidth="1"/>
+    <col min="18" max="18" width="5.1640625" style="21" customWidth="1"/>
+    <col min="19" max="19" width="24.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="47.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.59765625" style="21" customWidth="1"/>
-    <col min="22" max="16384" width="10.6640625" style="21"/>
+    <col min="21" max="21" width="13.6640625" style="21" customWidth="1"/>
+    <col min="22" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="42" t="s">
+      <c r="N1" s="61"/>
+      <c r="O1" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="57" t="s">
+      <c r="Q1" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="R1" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="57" t="s">
+      <c r="S1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="59" t="s">
+      <c r="T1" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="57" t="s">
+      <c r="U1" s="43" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="47"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="49"/>
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="54"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="58"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="44"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" thickTop="1">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -1862,7 +1860,7 @@
       <c r="I3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="40" t="s">
         <v>228</v>
       </c>
       <c r="K3" s="13" t="s">
@@ -1897,7 +1895,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" ht="15" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1921,7 +1919,7 @@
       <c r="I4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="40" t="s">
         <v>129</v>
       </c>
       <c r="K4" s="24" t="s">
@@ -1954,7 +1952,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1978,7 +1976,7 @@
       <c r="I5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="40" t="s">
         <v>135</v>
       </c>
       <c r="K5" s="24" t="s">
@@ -2013,7 +2011,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" ht="15" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -2037,7 +2035,7 @@
       <c r="I6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="40" t="s">
         <v>138</v>
       </c>
       <c r="K6" s="24" t="s">
@@ -2072,7 +2070,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" ht="15" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -2089,7 +2087,7 @@
         <v>146</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>142</v>
@@ -2100,7 +2098,7 @@
       <c r="I7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="40" t="s">
         <v>144</v>
       </c>
       <c r="K7" s="24" t="s">
@@ -2133,7 +2131,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" ht="15" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -2161,7 +2159,7 @@
       <c r="I8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="40" t="s">
         <v>150</v>
       </c>
       <c r="K8" s="24" t="s">
@@ -2194,7 +2192,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" ht="15" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -2222,7 +2220,7 @@
       <c r="I9" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="40" t="s">
         <v>154</v>
       </c>
       <c r="K9" s="24" t="s">
@@ -2255,7 +2253,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" ht="15" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -2283,7 +2281,7 @@
       <c r="I10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="40" t="s">
         <v>158</v>
       </c>
       <c r="K10" s="24" t="s">
@@ -2316,7 +2314,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" ht="15" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
@@ -2344,7 +2342,7 @@
       <c r="I11" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="63" t="s">
+      <c r="J11" s="40" t="s">
         <v>168</v>
       </c>
       <c r="K11" s="24" t="s">
@@ -2377,7 +2375,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" ht="15" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -2405,7 +2403,7 @@
       <c r="I12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="40" t="s">
         <v>162</v>
       </c>
       <c r="K12" s="24" t="s">
@@ -2438,7 +2436,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" ht="15" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -2464,7 +2462,7 @@
       <c r="I13" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="40" t="s">
         <v>165</v>
       </c>
       <c r="K13" s="24" t="s">
@@ -2499,7 +2497,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" ht="15" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -2523,7 +2521,7 @@
       <c r="I14" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="63" t="s">
+      <c r="J14" s="40" t="s">
         <v>171</v>
       </c>
       <c r="K14" s="24" t="s">
@@ -2558,7 +2556,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" ht="15" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -2584,7 +2582,7 @@
       <c r="I15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="63" t="s">
+      <c r="J15" s="40" t="s">
         <v>180</v>
       </c>
       <c r="K15" s="24" t="s">
@@ -2619,7 +2617,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" ht="15" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
@@ -2645,7 +2643,7 @@
       <c r="I16" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="63" t="s">
+      <c r="J16" s="40" t="s">
         <v>182</v>
       </c>
       <c r="K16" s="24" t="s">
@@ -2680,7 +2678,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" ht="15" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -2706,7 +2704,7 @@
       <c r="I17" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="63" t="s">
+      <c r="J17" s="40" t="s">
         <v>224</v>
       </c>
       <c r="K17" s="24" t="s">
@@ -2741,7 +2739,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" ht="15" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -2767,7 +2765,7 @@
       <c r="I18" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="63" t="s">
+      <c r="J18" s="40" t="s">
         <v>188</v>
       </c>
       <c r="K18" s="24" t="s">
@@ -2802,7 +2800,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" ht="15" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
@@ -2828,7 +2826,7 @@
       <c r="I19" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="63" t="s">
+      <c r="J19" s="40" t="s">
         <v>191</v>
       </c>
       <c r="K19" s="24" t="s">
@@ -2863,7 +2861,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" ht="15" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
@@ -2887,7 +2885,7 @@
       <c r="I20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="63" t="s">
+      <c r="J20" s="40" t="s">
         <v>197</v>
       </c>
       <c r="K20" s="24" t="s">
@@ -2920,7 +2918,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" ht="15" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -2946,7 +2944,7 @@
       <c r="I21" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="63" t="s">
+      <c r="J21" s="40" t="s">
         <v>205</v>
       </c>
       <c r="K21" s="24" t="s">
@@ -2981,7 +2979,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" ht="15" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
@@ -3007,7 +3005,7 @@
       <c r="I22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="63" t="s">
+      <c r="J22" s="40" t="s">
         <v>199</v>
       </c>
       <c r="K22" s="24" t="s">
@@ -3042,7 +3040,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" ht="15" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>16</v>
       </c>
@@ -3066,7 +3064,7 @@
       <c r="I23" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="63" t="s">
+      <c r="J23" s="40" t="s">
         <v>222</v>
       </c>
       <c r="K23" s="24" t="s">
@@ -3101,7 +3099,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" ht="15" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>16</v>
       </c>
@@ -3125,7 +3123,7 @@
       <c r="I24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="63" t="s">
+      <c r="J24" s="40" t="s">
         <v>214</v>
       </c>
       <c r="K24" s="24" t="s">
@@ -3146,7 +3144,7 @@
       <c r="T24" s="20"/>
       <c r="U24" s="18"/>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" ht="15" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>16</v>
       </c>
@@ -3170,7 +3168,7 @@
       <c r="I25" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="63" t="s">
+      <c r="J25" s="40" t="s">
         <v>215</v>
       </c>
       <c r="K25" s="24" t="s">
@@ -3205,7 +3203,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" ht="15" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>16</v>
       </c>
@@ -3229,7 +3227,7 @@
       <c r="I26" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="63" t="s">
+      <c r="J26" s="40" t="s">
         <v>216</v>
       </c>
       <c r="K26" s="24" t="s">
@@ -3264,7 +3262,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" ht="15" customHeight="1">
       <c r="A27" s="33"/>
       <c r="B27" s="22"/>
       <c r="C27" s="34"/>
@@ -3287,7 +3285,7 @@
       <c r="T27" s="20"/>
       <c r="U27" s="18"/>
     </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" ht="15" customHeight="1">
       <c r="A28" s="33"/>
       <c r="B28" s="22"/>
       <c r="C28" s="34"/>
@@ -3310,7 +3308,7 @@
       <c r="T28" s="20"/>
       <c r="U28" s="18"/>
     </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" ht="15" customHeight="1">
       <c r="A29" s="33"/>
       <c r="B29" s="22"/>
       <c r="C29" s="34"/>
@@ -3333,7 +3331,7 @@
       <c r="T29" s="20"/>
       <c r="U29" s="18"/>
     </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" ht="15" customHeight="1">
       <c r="A30" s="33"/>
       <c r="B30" s="22"/>
       <c r="C30" s="34"/>
@@ -3356,7 +3354,7 @@
       <c r="T30" s="20"/>
       <c r="U30" s="18"/>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" ht="15" customHeight="1">
       <c r="A31" s="33"/>
       <c r="B31" s="22"/>
       <c r="C31" s="34"/>
@@ -3379,7 +3377,7 @@
       <c r="T31" s="20"/>
       <c r="U31" s="18"/>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" ht="15" customHeight="1">
       <c r="A32" s="33"/>
       <c r="B32" s="22"/>
       <c r="C32" s="34"/>
@@ -3402,7 +3400,7 @@
       <c r="T32" s="20"/>
       <c r="U32" s="18"/>
     </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:21" ht="15" customHeight="1">
       <c r="A33" s="33"/>
       <c r="B33" s="22"/>
       <c r="C33" s="34"/>
@@ -3425,7 +3423,7 @@
       <c r="T33" s="20"/>
       <c r="U33" s="18"/>
     </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:21" ht="15" customHeight="1">
       <c r="A34" s="33"/>
       <c r="B34" s="22"/>
       <c r="C34" s="34"/>
@@ -3448,7 +3446,7 @@
       <c r="T34" s="20"/>
       <c r="U34" s="18"/>
     </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:21" ht="15" customHeight="1">
       <c r="A35" s="33"/>
       <c r="B35" s="22"/>
       <c r="C35" s="34"/>
@@ -3471,7 +3469,7 @@
       <c r="T35" s="20"/>
       <c r="U35" s="18"/>
     </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:21" ht="15" customHeight="1">
       <c r="A36" s="33"/>
       <c r="B36" s="22"/>
       <c r="C36" s="34"/>
@@ -3494,7 +3492,7 @@
       <c r="T36" s="20"/>
       <c r="U36" s="18"/>
     </row>
-    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:21" ht="15" customHeight="1">
       <c r="A37" s="33"/>
       <c r="B37" s="22"/>
       <c r="C37" s="34"/>
@@ -3517,7 +3515,7 @@
       <c r="T37" s="20"/>
       <c r="U37" s="18"/>
     </row>
-    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:21" ht="15" customHeight="1">
       <c r="A38" s="33"/>
       <c r="B38" s="22"/>
       <c r="C38" s="34"/>
@@ -3540,7 +3538,7 @@
       <c r="T38" s="20"/>
       <c r="U38" s="18"/>
     </row>
-    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:21" ht="15" customHeight="1">
       <c r="A39" s="33"/>
       <c r="B39" s="22"/>
       <c r="C39" s="34"/>
@@ -3563,7 +3561,7 @@
       <c r="T39" s="20"/>
       <c r="U39" s="18"/>
     </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:21" ht="15" customHeight="1">
       <c r="A40" s="33"/>
       <c r="B40" s="22"/>
       <c r="C40" s="34"/>
@@ -3586,7 +3584,7 @@
       <c r="T40" s="20"/>
       <c r="U40" s="18"/>
     </row>
-    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:21" ht="15" customHeight="1">
       <c r="A41" s="33"/>
       <c r="B41" s="22"/>
       <c r="C41" s="34"/>
@@ -3609,7 +3607,7 @@
       <c r="T41" s="20"/>
       <c r="U41" s="18"/>
     </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:21" ht="15" customHeight="1">
       <c r="A42" s="33"/>
       <c r="B42" s="22"/>
       <c r="C42" s="34"/>
@@ -3632,7 +3630,7 @@
       <c r="T42" s="20"/>
       <c r="U42" s="18"/>
     </row>
-    <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21" ht="15" customHeight="1">
       <c r="A43" s="33"/>
       <c r="B43" s="22"/>
       <c r="C43" s="34"/>
@@ -3655,7 +3653,7 @@
       <c r="T43" s="20"/>
       <c r="U43" s="18"/>
     </row>
-    <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:21" ht="15" customHeight="1">
       <c r="A44" s="33"/>
       <c r="B44" s="22"/>
       <c r="C44" s="34"/>
@@ -3678,7 +3676,7 @@
       <c r="T44" s="20"/>
       <c r="U44" s="18"/>
     </row>
-    <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" ht="15" customHeight="1">
       <c r="A45" s="33"/>
       <c r="B45" s="22"/>
       <c r="C45" s="34"/>
@@ -3701,7 +3699,7 @@
       <c r="T45" s="20"/>
       <c r="U45" s="18"/>
     </row>
-    <row r="46" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21" ht="15" customHeight="1">
       <c r="A46" s="33"/>
       <c r="B46" s="22"/>
       <c r="C46" s="34"/>
@@ -3724,7 +3722,7 @@
       <c r="T46" s="20"/>
       <c r="U46" s="18"/>
     </row>
-    <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21" ht="15" customHeight="1">
       <c r="A47" s="33"/>
       <c r="B47" s="22"/>
       <c r="C47" s="34"/>
@@ -3747,7 +3745,7 @@
       <c r="T47" s="20"/>
       <c r="U47" s="18"/>
     </row>
-    <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" ht="15" customHeight="1">
       <c r="A48" s="33"/>
       <c r="B48" s="22"/>
       <c r="C48" s="34"/>
@@ -3770,7 +3768,7 @@
       <c r="T48" s="20"/>
       <c r="U48" s="18"/>
     </row>
-    <row r="49" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:21" ht="15" customHeight="1">
       <c r="A49" s="33"/>
       <c r="B49" s="22"/>
       <c r="C49" s="34"/>
@@ -3793,7 +3791,7 @@
       <c r="T49" s="20"/>
       <c r="U49" s="18"/>
     </row>
-    <row r="50" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:21" ht="15" customHeight="1">
       <c r="A50" s="33"/>
       <c r="B50" s="22"/>
       <c r="C50" s="34"/>
@@ -3816,7 +3814,7 @@
       <c r="T50" s="20"/>
       <c r="U50" s="18"/>
     </row>
-    <row r="51" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:21" ht="15" customHeight="1">
       <c r="A51" s="33"/>
       <c r="B51" s="22"/>
       <c r="C51" s="34"/>
@@ -3839,7 +3837,7 @@
       <c r="T51" s="20"/>
       <c r="U51" s="18"/>
     </row>
-    <row r="52" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:21" ht="15" customHeight="1">
       <c r="A52" s="33"/>
       <c r="B52" s="22"/>
       <c r="C52" s="34"/>
@@ -3862,7 +3860,7 @@
       <c r="T52" s="20"/>
       <c r="U52" s="18"/>
     </row>
-    <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:21" ht="15" customHeight="1">
       <c r="A53" s="33"/>
       <c r="B53" s="22"/>
       <c r="C53" s="34"/>
@@ -3885,7 +3883,7 @@
       <c r="T53" s="20"/>
       <c r="U53" s="18"/>
     </row>
-    <row r="54" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:21" ht="15" customHeight="1">
       <c r="A54" s="33"/>
       <c r="B54" s="22"/>
       <c r="C54" s="34"/>
@@ -3908,7 +3906,7 @@
       <c r="T54" s="20"/>
       <c r="U54" s="18"/>
     </row>
-    <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:21" ht="15" customHeight="1">
       <c r="A55" s="33"/>
       <c r="B55" s="22"/>
       <c r="C55" s="34"/>
@@ -3931,7 +3929,7 @@
       <c r="T55" s="20"/>
       <c r="U55" s="18"/>
     </row>
-    <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:21" ht="15" customHeight="1">
       <c r="A56" s="33"/>
       <c r="B56" s="22"/>
       <c r="C56" s="34"/>
@@ -3954,7 +3952,7 @@
       <c r="T56" s="20"/>
       <c r="U56" s="18"/>
     </row>
-    <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:21" ht="15" customHeight="1">
       <c r="A57" s="33"/>
       <c r="B57" s="22"/>
       <c r="C57" s="34"/>
@@ -3977,7 +3975,7 @@
       <c r="T57" s="20"/>
       <c r="U57" s="18"/>
     </row>
-    <row r="58" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:21" ht="15" customHeight="1">
       <c r="A58" s="33"/>
       <c r="B58" s="22"/>
       <c r="C58" s="34"/>
@@ -4000,7 +3998,7 @@
       <c r="T58" s="20"/>
       <c r="U58" s="18"/>
     </row>
-    <row r="59" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:21" ht="15" customHeight="1">
       <c r="A59" s="33"/>
       <c r="B59" s="22"/>
       <c r="C59" s="34"/>
@@ -4023,7 +4021,7 @@
       <c r="T59" s="20"/>
       <c r="U59" s="18"/>
     </row>
-    <row r="60" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:21" ht="15" customHeight="1">
       <c r="A60" s="33"/>
       <c r="B60" s="22"/>
       <c r="C60" s="34"/>
@@ -4046,7 +4044,7 @@
       <c r="T60" s="20"/>
       <c r="U60" s="18"/>
     </row>
-    <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:21" ht="15" customHeight="1">
       <c r="A61" s="33"/>
       <c r="B61" s="22"/>
       <c r="C61" s="34"/>
@@ -4069,7 +4067,7 @@
       <c r="T61" s="20"/>
       <c r="U61" s="18"/>
     </row>
-    <row r="62" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:21" ht="15" customHeight="1">
       <c r="A62" s="33"/>
       <c r="B62" s="22"/>
       <c r="C62" s="34"/>
@@ -4092,7 +4090,7 @@
       <c r="T62" s="20"/>
       <c r="U62" s="18"/>
     </row>
-    <row r="63" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:21" ht="15" customHeight="1">
       <c r="A63" s="33"/>
       <c r="B63" s="22"/>
       <c r="C63" s="34"/>
@@ -4115,7 +4113,7 @@
       <c r="T63" s="20"/>
       <c r="U63" s="18"/>
     </row>
-    <row r="64" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:21" ht="15" customHeight="1">
       <c r="A64" s="33"/>
       <c r="B64" s="22"/>
       <c r="C64" s="34"/>
@@ -4138,7 +4136,7 @@
       <c r="T64" s="20"/>
       <c r="U64" s="18"/>
     </row>
-    <row r="65" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:21" ht="15" customHeight="1">
       <c r="A65" s="33"/>
       <c r="B65" s="22"/>
       <c r="C65" s="34"/>
@@ -4161,7 +4159,7 @@
       <c r="T65" s="20"/>
       <c r="U65" s="18"/>
     </row>
-    <row r="66" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:21" ht="15" customHeight="1">
       <c r="A66" s="33"/>
       <c r="B66" s="22"/>
       <c r="C66" s="34"/>
@@ -4184,7 +4182,7 @@
       <c r="T66" s="20"/>
       <c r="U66" s="18"/>
     </row>
-    <row r="67" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:21" ht="15" customHeight="1">
       <c r="A67" s="33"/>
       <c r="B67" s="22"/>
       <c r="C67" s="34"/>
@@ -4207,7 +4205,7 @@
       <c r="T67" s="20"/>
       <c r="U67" s="18"/>
     </row>
-    <row r="68" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:21" ht="15" customHeight="1">
       <c r="A68" s="33"/>
       <c r="B68" s="22"/>
       <c r="C68" s="34"/>
@@ -4230,7 +4228,7 @@
       <c r="T68" s="20"/>
       <c r="U68" s="18"/>
     </row>
-    <row r="69" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:21" ht="15" customHeight="1">
       <c r="A69" s="33"/>
       <c r="B69" s="22"/>
       <c r="C69" s="34"/>
@@ -4253,7 +4251,7 @@
       <c r="T69" s="20"/>
       <c r="U69" s="18"/>
     </row>
-    <row r="70" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:21" ht="15" customHeight="1">
       <c r="A70" s="33"/>
       <c r="B70" s="22"/>
       <c r="C70" s="34"/>
@@ -4276,187 +4274,187 @@
       <c r="T70" s="20"/>
       <c r="U70" s="18"/>
     </row>
-    <row r="85" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" ht="15" customHeight="1">
       <c r="A85" s="21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" ht="15" customHeight="1">
       <c r="A86" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" ht="15" customHeight="1">
       <c r="A87" s="21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" ht="15" customHeight="1">
       <c r="A88" s="21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" ht="15" customHeight="1">
       <c r="A89" s="21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" ht="15" customHeight="1">
       <c r="A90" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" ht="15" customHeight="1">
       <c r="A91" s="21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" ht="15" customHeight="1">
       <c r="A92" s="21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" ht="15" customHeight="1">
       <c r="A93" s="21" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" ht="15" customHeight="1">
       <c r="A94" s="21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" ht="15" customHeight="1">
       <c r="A95" s="21" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" ht="15" customHeight="1">
       <c r="A96" s="21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" ht="15" customHeight="1">
       <c r="A97" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" ht="15" customHeight="1">
       <c r="A98" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" ht="15" customHeight="1">
       <c r="A99" s="21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" ht="15" customHeight="1">
       <c r="A100" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" ht="15" customHeight="1">
       <c r="A101" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" ht="15" customHeight="1">
       <c r="A102" s="21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" ht="15" customHeight="1">
       <c r="A103" s="21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" ht="15" customHeight="1">
       <c r="A104" s="21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" ht="15" customHeight="1">
       <c r="A105" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" ht="15" customHeight="1">
       <c r="A106" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" ht="15" customHeight="1">
       <c r="A107" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" ht="15" customHeight="1">
       <c r="A108" s="21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" ht="15" customHeight="1">
       <c r="A109" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" ht="15" customHeight="1">
       <c r="A110" s="21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" ht="15" customHeight="1">
       <c r="A111" s="21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" ht="15" customHeight="1">
       <c r="A112" s="21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" ht="15" customHeight="1">
       <c r="A113" s="21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" ht="15" customHeight="1">
       <c r="A114" s="21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" ht="15" customHeight="1">
       <c r="A115" s="21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" ht="15" customHeight="1">
       <c r="A116" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" ht="15" customHeight="1">
       <c r="A117" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" ht="15" customHeight="1">
       <c r="A118" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" ht="15" customHeight="1">
       <c r="A119" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" ht="15" customHeight="1">
       <c r="A120" s="21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" ht="15" customHeight="1">
       <c r="A121" s="21" t="s">
         <v>115</v>
       </c>
@@ -4466,12 +4464,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4486,6 +4478,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -4538,27 +4536,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" style="1"/>
     <col min="14" max="14" width="24.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="69.796875" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="69.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="16" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4575,7 +4573,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4599,7 +4597,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4618,7 +4616,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -4637,7 +4635,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" ht="15">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4653,7 +4651,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" ht="15">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4670,7 +4668,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" ht="15">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -4687,7 +4685,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4702,7 +4700,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" ht="15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -4717,7 +4715,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" ht="15">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4732,7 +4730,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" ht="15">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4747,7 +4745,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" ht="15">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4762,7 +4760,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" ht="15">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -4777,7 +4775,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" ht="15">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4792,7 +4790,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" ht="15">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4807,7 +4805,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" ht="15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4822,7 +4820,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:12" ht="15">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -4836,7 +4834,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="15">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
@@ -4850,7 +4848,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:12" ht="15">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -4864,7 +4862,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:12" ht="15">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
@@ -4878,7 +4876,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:12" ht="15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -4893,7 +4891,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:12" ht="15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -4908,7 +4906,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:12" ht="15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4923,7 +4921,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:12" ht="15">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4938,7 +4936,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:12" ht="15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -4953,7 +4951,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:12" ht="15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4968,7 +4966,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:12" ht="15">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4983,7 +4981,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:12" ht="15">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4998,7 +4996,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:12" ht="15">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -5013,7 +5011,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:12" ht="15">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -5028,7 +5026,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:12" ht="15">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -5043,7 +5041,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:12" ht="15">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5058,7 +5056,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:12" ht="15">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -5073,7 +5071,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:12" ht="15">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -5088,7 +5086,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:12" ht="15">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5103,7 +5101,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:12" ht="15">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -5118,7 +5116,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:12" ht="15">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -5133,7 +5131,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:12" ht="15">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -5148,7 +5146,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:12" ht="15">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -5163,7 +5161,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:12" ht="15">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -5178,7 +5176,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:12" ht="15">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -5193,7 +5191,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:12" ht="15">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5208,7 +5206,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:12" ht="15">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5223,7 +5221,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:12" ht="15">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5238,7 +5236,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:12" ht="15">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5253,7 +5251,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:12" ht="15">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5268,7 +5266,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:12" ht="15">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -5283,7 +5281,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:12" ht="15">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -5298,7 +5296,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:12" ht="15">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -5310,7 +5308,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:12" ht="15">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -5322,7 +5320,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:12" ht="15">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -5335,7 +5333,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:12" ht="15">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -5348,7 +5346,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:12" ht="15">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -5361,7 +5359,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:12" ht="15">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -5374,7 +5372,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:12" ht="15">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -5387,7 +5385,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:12" ht="15">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -5400,7 +5398,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:12" ht="15">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -5413,7 +5411,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:12" ht="15">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -5426,7 +5424,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:12" ht="15">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -5439,7 +5437,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:12" ht="15">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -5452,7 +5450,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:12" ht="15">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -5465,7 +5463,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:12" ht="15">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -5478,7 +5476,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:12" ht="15">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -5491,7 +5489,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:12" ht="15">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -5504,7 +5502,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:12" ht="15">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -5517,7 +5515,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:12" ht="15">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -5530,7 +5528,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:12" ht="15">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -5543,7 +5541,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:12" ht="15">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -5556,7 +5554,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:12" ht="15">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -5569,7 +5567,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:12" ht="15">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -5582,7 +5580,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:12" ht="15">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -5596,7 +5594,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:12" ht="15">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -5610,7 +5608,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:12" ht="15">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -5624,7 +5622,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:12" ht="15">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -5638,7 +5636,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:12" ht="15">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -5652,7 +5650,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:12" ht="15">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -5666,7 +5664,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:12" ht="15">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -5680,7 +5678,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:12" ht="15">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -5694,7 +5692,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:12" ht="15">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -5708,7 +5706,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:12" ht="15">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5722,7 +5720,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:12" ht="15">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5736,7 +5734,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:12" ht="15">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5750,7 +5748,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:12" ht="15">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5764,7 +5762,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:12" ht="15">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5778,7 +5776,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:12" ht="15">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5792,7 +5790,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:12" ht="15">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5806,7 +5804,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:12" ht="15">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5820,7 +5818,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:12" ht="15">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5834,7 +5832,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:12" ht="15">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5848,7 +5846,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:12" ht="15">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5862,7 +5860,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:12" ht="15">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5876,7 +5874,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:12" ht="15">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5890,7 +5888,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:12" ht="15">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5904,7 +5902,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:12" ht="15">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5918,7 +5916,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:12" ht="15">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5932,7 +5930,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:12" ht="15">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5946,7 +5944,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:12" ht="15">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5960,7 +5958,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:12" ht="15">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5974,7 +5972,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:12" ht="15">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5988,7 +5986,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:12" ht="15">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -6002,7 +6000,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:12" ht="15">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -6016,7 +6014,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:12" ht="15">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -6030,7 +6028,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:12" ht="15">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -6044,7 +6042,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:12" ht="15">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6058,7 +6056,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:12" ht="15">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6072,7 +6070,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:12" ht="15">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6086,7 +6084,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:12" ht="15">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6100,7 +6098,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:12" ht="15">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6114,7 +6112,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:12" ht="15">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6128,7 +6126,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:12" ht="15">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6142,7 +6140,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:12" ht="15">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6156,7 +6154,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:12" ht="15">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6170,7 +6168,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:12" ht="15">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6184,7 +6182,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:12" ht="15">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6198,7 +6196,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:12" ht="15">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6212,7 +6210,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:12" ht="15">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6226,7 +6224,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:12" ht="15">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6240,7 +6238,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:12" ht="15">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6254,7 +6252,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:12" ht="15">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6268,7 +6266,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:12" ht="15">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6282,7 +6280,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:12" ht="15">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6296,7 +6294,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:12" ht="15">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6310,7 +6308,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:12" ht="15">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6324,7 +6322,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:12" ht="15">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6338,7 +6336,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:12" ht="15">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6352,7 +6350,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:12" ht="15">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6366,7 +6364,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:12" ht="15">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6380,7 +6378,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:12" ht="15">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6394,7 +6392,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:12" ht="15">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6408,7 +6406,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:12" ht="15">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6422,7 +6420,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:12" ht="15">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6436,7 +6434,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:12" ht="15">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6450,7 +6448,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:12" ht="15">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>

--- a/fuentes/contenidos/grado10/guion06/Escaleta_LE_10_06.xlsx
+++ b/fuentes/contenidos/grado10/guion06/Escaleta_LE_10_06.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="245">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1020,8 +1020,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1241,34 +1243,16 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1310,8 +1294,26 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="101">
+  <cellStyles count="103">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1362,6 +1364,7 @@
     <cellStyle name="Hipervínculo" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1412,6 +1415,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1718,7 +1722,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1747,94 +1751,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="61"/>
-      <c r="O1" s="41" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="58" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="56"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="50"/>
       <c r="M2" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="59"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" thickTop="1">
       <c r="A3" s="5" t="s">
@@ -2510,7 +2514,9 @@
       <c r="D14" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="E14" s="22"/>
+      <c r="E14" s="22" t="s">
+        <v>179</v>
+      </c>
       <c r="F14" s="23"/>
       <c r="G14" s="37" t="s">
         <v>169</v>
@@ -4464,6 +4470,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4478,14 +4490,9 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">

--- a/fuentes/contenidos/grado10/guion06/Escaleta_LE_10_06.xlsx
+++ b/fuentes/contenidos/grado10/guion06/Escaleta_LE_10_06.xlsx
@@ -413,9 +413,6 @@
     <t>Semántica: Asocia tabús con sus eufemismos</t>
   </si>
   <si>
-    <t>Actividad diagnóstica sobre las palabras tabú y los eufemismos</t>
-  </si>
-  <si>
     <t>LC</t>
   </si>
   <si>
@@ -431,9 +428,6 @@
     <t>Expresión oral: responde las preguntas sobre el programa de entrevistas</t>
   </si>
   <si>
-    <t>Actividad diagnóstica sobre este formato televisivo</t>
-  </si>
-  <si>
     <t>Recurso M5A-01</t>
   </si>
   <si>
@@ -759,6 +753,12 @@
   </si>
   <si>
     <t>Contexto social</t>
+  </si>
+  <si>
+    <t>Actividad diagnóstica acerca de las palabras tabú y los eufemismos</t>
+  </si>
+  <si>
+    <t>Actividad diagnóstica en torno a este formato televisivo</t>
   </si>
 </sst>
 </file>
@@ -1243,16 +1243,34 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1292,24 +1310,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1722,7 +1722,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1751,101 +1751,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="43" t="s">
+      <c r="N1" s="61"/>
+      <c r="O1" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="R1" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="60" t="s">
+      <c r="T1" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="43" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="50"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="59"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="44"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" thickTop="1">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>122</v>
@@ -1856,7 +1856,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
       <c r="G3" s="37" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H3" s="11">
         <v>1</v>
@@ -1865,7 +1865,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>20</v>
@@ -1878,7 +1878,7 @@
         <v>36</v>
       </c>
       <c r="O3" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P3" s="17" t="s">
         <v>19</v>
@@ -1904,7 +1904,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>122</v>
@@ -1924,7 +1924,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>19</v>
@@ -1935,7 +1935,7 @@
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
       <c r="O4" s="38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P4" s="17" t="s">
         <v>19</v>
@@ -1944,16 +1944,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="S4" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="T4" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="T4" s="20" t="s">
+      <c r="U4" s="18" t="s">
         <v>132</v>
-      </c>
-      <c r="U4" s="18" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1">
@@ -1961,7 +1961,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>122</v>
@@ -1972,7 +1972,7 @@
       <c r="E5" s="22"/>
       <c r="F5" s="23"/>
       <c r="G5" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H5" s="11">
         <v>3</v>
@@ -1981,7 +1981,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="K5" s="24" t="s">
         <v>20</v>
@@ -1994,7 +1994,7 @@
         <v>33</v>
       </c>
       <c r="O5" s="38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>19</v>
@@ -2009,7 +2009,7 @@
         <v>125</v>
       </c>
       <c r="T5" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="U5" s="18" t="s">
         <v>127</v>
@@ -2020,7 +2020,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>122</v>
@@ -2031,7 +2031,7 @@
       <c r="E6" s="22"/>
       <c r="F6" s="23"/>
       <c r="G6" s="37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H6" s="11">
         <v>4</v>
@@ -2040,7 +2040,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K6" s="24" t="s">
         <v>20</v>
@@ -2053,7 +2053,7 @@
         <v>43</v>
       </c>
       <c r="O6" s="38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P6" s="17" t="s">
         <v>19</v>
@@ -2068,7 +2068,7 @@
         <v>125</v>
       </c>
       <c r="T6" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U6" s="18" t="s">
         <v>127</v>
@@ -2079,7 +2079,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>122</v>
@@ -2088,13 +2088,13 @@
         <v>122</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H7" s="11">
         <v>5</v>
@@ -2103,7 +2103,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="40" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K7" s="24" t="s">
         <v>19</v>
@@ -2114,7 +2114,7 @@
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
       <c r="O7" s="38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P7" s="17" t="s">
         <v>19</v>
@@ -2123,16 +2123,16 @@
         <v>10</v>
       </c>
       <c r="R7" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S7" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="T7" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="U7" s="18" t="s">
         <v>141</v>
-      </c>
-      <c r="T7" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="U7" s="18" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1">
@@ -2140,7 +2140,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>122</v>
@@ -2149,13 +2149,13 @@
         <v>122</v>
       </c>
       <c r="E8" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="37" t="s">
         <v>146</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>148</v>
       </c>
       <c r="H8" s="11">
         <v>6</v>
@@ -2164,7 +2164,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K8" s="24" t="s">
         <v>19</v>
@@ -2175,7 +2175,7 @@
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P8" s="17" t="s">
         <v>19</v>
@@ -2184,16 +2184,16 @@
         <v>10</v>
       </c>
       <c r="R8" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S8" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="T8" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="U8" s="18" t="s">
         <v>147</v>
-      </c>
-      <c r="T8" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="U8" s="18" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1">
@@ -2201,7 +2201,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>122</v>
@@ -2210,13 +2210,13 @@
         <v>122</v>
       </c>
       <c r="E9" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="37" t="s">
         <v>151</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>153</v>
       </c>
       <c r="H9" s="11">
         <v>7</v>
@@ -2225,7 +2225,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K9" s="24" t="s">
         <v>19</v>
@@ -2236,7 +2236,7 @@
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P9" s="17" t="s">
         <v>19</v>
@@ -2245,16 +2245,16 @@
         <v>10</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S9" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="T9" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="U9" s="18" t="s">
         <v>141</v>
-      </c>
-      <c r="T9" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="U9" s="18" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1">
@@ -2262,7 +2262,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>122</v>
@@ -2271,13 +2271,13 @@
         <v>122</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F10" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="37" t="s">
         <v>155</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>157</v>
       </c>
       <c r="H10" s="11">
         <v>8</v>
@@ -2286,7 +2286,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K10" s="24" t="s">
         <v>19</v>
@@ -2297,7 +2297,7 @@
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
       <c r="O10" s="38" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P10" s="17" t="s">
         <v>19</v>
@@ -2306,16 +2306,16 @@
         <v>10</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S10" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="T10" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="U10" s="18" t="s">
         <v>141</v>
-      </c>
-      <c r="T10" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="U10" s="18" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" customHeight="1">
@@ -2323,7 +2323,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>122</v>
@@ -2332,13 +2332,13 @@
         <v>122</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H11" s="11">
         <v>9</v>
@@ -2347,7 +2347,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K11" s="24" t="s">
         <v>19</v>
@@ -2358,7 +2358,7 @@
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
       <c r="O11" s="38" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P11" s="17" t="s">
         <v>19</v>
@@ -2367,16 +2367,16 @@
         <v>10</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S11" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="T11" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="U11" s="18" t="s">
         <v>147</v>
-      </c>
-      <c r="T11" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="U11" s="18" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15" customHeight="1">
@@ -2384,7 +2384,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>122</v>
@@ -2393,13 +2393,13 @@
         <v>122</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F12" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="37" t="s">
         <v>159</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>161</v>
       </c>
       <c r="H12" s="11">
         <v>10</v>
@@ -2408,7 +2408,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K12" s="24" t="s">
         <v>19</v>
@@ -2419,7 +2419,7 @@
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
       <c r="O12" s="38" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P12" s="17" t="s">
         <v>19</v>
@@ -2428,16 +2428,16 @@
         <v>10</v>
       </c>
       <c r="R12" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S12" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="T12" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="U12" s="18" t="s">
         <v>147</v>
-      </c>
-      <c r="T12" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="U12" s="18" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1">
@@ -2445,7 +2445,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>122</v>
@@ -2454,11 +2454,11 @@
         <v>122</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H13" s="11">
         <v>11</v>
@@ -2467,7 +2467,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K13" s="24" t="s">
         <v>20</v>
@@ -2480,7 +2480,7 @@
         <v>121</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P13" s="17" t="s">
         <v>19</v>
@@ -2495,7 +2495,7 @@
         <v>125</v>
       </c>
       <c r="T13" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="U13" s="18" t="s">
         <v>127</v>
@@ -2506,20 +2506,20 @@
         <v>16</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="37" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H14" s="11">
         <v>12</v>
@@ -2528,7 +2528,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K14" s="24" t="s">
         <v>20</v>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="N14" s="26"/>
       <c r="O14" s="38" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P14" s="17" t="s">
         <v>19</v>
@@ -2550,16 +2550,16 @@
         <v>6</v>
       </c>
       <c r="R14" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="S14" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="T14" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="S14" s="18" t="s">
+      <c r="U14" s="18" t="s">
         <v>173</v>
-      </c>
-      <c r="T14" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="U14" s="18" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1">
@@ -2567,20 +2567,20 @@
         <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H15" s="11">
         <v>13</v>
@@ -2589,7 +2589,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K15" s="24" t="s">
         <v>20</v>
@@ -2602,7 +2602,7 @@
         <v>50</v>
       </c>
       <c r="O15" s="38" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P15" s="17" t="s">
         <v>19</v>
@@ -2617,7 +2617,7 @@
         <v>125</v>
       </c>
       <c r="T15" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U15" s="18" t="s">
         <v>127</v>
@@ -2628,20 +2628,20 @@
         <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="37" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H16" s="11">
         <v>14</v>
@@ -2650,7 +2650,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K16" s="24" t="s">
         <v>20</v>
@@ -2663,7 +2663,7 @@
         <v>121</v>
       </c>
       <c r="O16" s="38" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P16" s="17" t="s">
         <v>19</v>
@@ -2678,7 +2678,7 @@
         <v>125</v>
       </c>
       <c r="T16" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U16" s="18" t="s">
         <v>127</v>
@@ -2689,20 +2689,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="37" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H17" s="11">
         <v>15</v>
@@ -2711,7 +2711,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K17" s="24" t="s">
         <v>20</v>
@@ -2724,7 +2724,7 @@
         <v>44</v>
       </c>
       <c r="O17" s="39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P17" s="17" t="s">
         <v>19</v>
@@ -2739,7 +2739,7 @@
         <v>125</v>
       </c>
       <c r="T17" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="U17" s="18" t="s">
         <v>127</v>
@@ -2750,20 +2750,20 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H18" s="11">
         <v>16</v>
@@ -2772,7 +2772,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K18" s="24" t="s">
         <v>20</v>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="N18" s="26"/>
       <c r="O18" s="38" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P18" s="17" t="s">
         <v>19</v>
@@ -2794,16 +2794,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="S18" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="T18" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="U18" s="18" t="s">
         <v>173</v>
-      </c>
-      <c r="T18" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="U18" s="18" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15" customHeight="1">
@@ -2811,20 +2811,20 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H19" s="11">
         <v>17</v>
@@ -2833,7 +2833,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="40" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K19" s="24" t="s">
         <v>20</v>
@@ -2846,7 +2846,7 @@
         <v>121</v>
       </c>
       <c r="O19" s="38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P19" s="17" t="s">
         <v>19</v>
@@ -2861,7 +2861,7 @@
         <v>125</v>
       </c>
       <c r="T19" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="U19" s="18" t="s">
         <v>127</v>
@@ -2872,18 +2872,18 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="23"/>
       <c r="G20" s="37" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H20" s="11">
         <v>18</v>
@@ -2892,7 +2892,7 @@
         <v>19</v>
       </c>
       <c r="J20" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K20" s="24" t="s">
         <v>19</v>
@@ -2903,7 +2903,7 @@
       <c r="M20" s="26"/>
       <c r="N20" s="26"/>
       <c r="O20" s="38" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P20" s="17" t="s">
         <v>19</v>
@@ -2912,16 +2912,16 @@
         <v>10</v>
       </c>
       <c r="R20" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S20" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="T20" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="U20" s="18" t="s">
         <v>193</v>
-      </c>
-      <c r="T20" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="U20" s="18" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15" customHeight="1">
@@ -2929,20 +2929,20 @@
         <v>16</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H21" s="11">
         <v>19</v>
@@ -2951,7 +2951,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="40" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K21" s="24" t="s">
         <v>20</v>
@@ -2964,7 +2964,7 @@
         <v>28</v>
       </c>
       <c r="O21" s="38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P21" s="17" t="s">
         <v>19</v>
@@ -2979,7 +2979,7 @@
         <v>125</v>
       </c>
       <c r="T21" s="32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="U21" s="31" t="s">
         <v>127</v>
@@ -2990,20 +2990,20 @@
         <v>16</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="37" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H22" s="11">
         <v>20</v>
@@ -3012,7 +3012,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K22" s="24" t="s">
         <v>20</v>
@@ -3025,7 +3025,7 @@
         <v>121</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P22" s="17" t="s">
         <v>19</v>
@@ -3040,7 +3040,7 @@
         <v>125</v>
       </c>
       <c r="T22" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U22" s="18" t="s">
         <v>127</v>
@@ -3051,18 +3051,18 @@
         <v>16</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="23"/>
       <c r="G23" s="37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H23" s="11">
         <v>21</v>
@@ -3071,7 +3071,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K23" s="24" t="s">
         <v>20</v>
@@ -3084,7 +3084,7 @@
         <v>120</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P23" s="17" t="s">
         <v>19</v>
@@ -3099,7 +3099,7 @@
         <v>125</v>
       </c>
       <c r="T23" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="U23" s="18" t="s">
         <v>127</v>
@@ -3110,13 +3110,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="23"/>
@@ -3130,7 +3130,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K24" s="24" t="s">
         <v>20</v>
@@ -3155,18 +3155,18 @@
         <v>16</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="23"/>
       <c r="G25" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H25" s="11">
         <v>23</v>
@@ -3175,7 +3175,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K25" s="24" t="s">
         <v>20</v>
@@ -3188,7 +3188,7 @@
         <v>32</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P25" s="17" t="s">
         <v>19</v>
@@ -3203,7 +3203,7 @@
         <v>125</v>
       </c>
       <c r="T25" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="U25" s="18" t="s">
         <v>127</v>
@@ -3214,18 +3214,18 @@
         <v>16</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="23"/>
       <c r="G26" s="37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H26" s="11">
         <v>24</v>
@@ -3234,7 +3234,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="40" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K26" s="24" t="s">
         <v>20</v>
@@ -3247,7 +3247,7 @@
         <v>52</v>
       </c>
       <c r="O26" s="38" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P26" s="17" t="s">
         <v>20</v>
@@ -3262,7 +3262,7 @@
         <v>125</v>
       </c>
       <c r="T26" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="U26" s="18" t="s">
         <v>127</v>
@@ -4470,12 +4470,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4490,6 +4484,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/fuentes/contenidos/grado10/guion06/Escaleta_LE_10_06.xlsx
+++ b/fuentes/contenidos/grado10/guion06/Escaleta_LE_10_06.xlsx
@@ -683,12 +683,6 @@
     <t xml:space="preserve">Características de los programas de entrevistas </t>
   </si>
   <si>
-    <t>Proyecto: reflexiona sobre el impacto de la dictadura en la literatura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para analizar este periodo de la historia española </t>
-  </si>
-  <si>
     <t>Recurso M11A-01</t>
   </si>
   <si>
@@ -759,6 +753,12 @@
   </si>
   <si>
     <t>Actividad diagnóstica en torno a este formato televisivo</t>
+  </si>
+  <si>
+    <t>Proyecto: la mujer en la literatura de la democracia</t>
+  </si>
+  <si>
+    <t>Actividad para investigar acerca de la producción literaria femenina en la España democrática</t>
   </si>
 </sst>
 </file>
@@ -1243,34 +1243,16 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1310,6 +1292,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1720,9 +1720,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1751,101 +1751,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="61"/>
-      <c r="O1" s="41" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="58" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="56"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="50"/>
       <c r="M2" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="59"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" thickTop="1">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>122</v>
@@ -1856,7 +1856,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
       <c r="G3" s="37" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H3" s="11">
         <v>1</v>
@@ -1865,7 +1865,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>20</v>
@@ -1878,7 +1878,7 @@
         <v>36</v>
       </c>
       <c r="O3" s="38" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P3" s="17" t="s">
         <v>19</v>
@@ -1904,7 +1904,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>122</v>
@@ -1924,7 +1924,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>19</v>
@@ -1935,7 +1935,7 @@
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
       <c r="O4" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P4" s="17" t="s">
         <v>19</v>
@@ -1961,7 +1961,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>122</v>
@@ -1981,7 +1981,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K5" s="24" t="s">
         <v>20</v>
@@ -1994,7 +1994,7 @@
         <v>33</v>
       </c>
       <c r="O5" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>19</v>
@@ -2020,7 +2020,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>122</v>
@@ -2079,7 +2079,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>122</v>
@@ -2091,7 +2091,7 @@
         <v>144</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>140</v>
@@ -2114,7 +2114,7 @@
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
       <c r="O7" s="38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P7" s="17" t="s">
         <v>19</v>
@@ -2140,7 +2140,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>122</v>
@@ -2175,7 +2175,7 @@
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P8" s="17" t="s">
         <v>19</v>
@@ -2201,7 +2201,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>122</v>
@@ -2236,7 +2236,7 @@
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P9" s="17" t="s">
         <v>19</v>
@@ -2262,7 +2262,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>122</v>
@@ -2297,7 +2297,7 @@
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
       <c r="O10" s="38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P10" s="17" t="s">
         <v>19</v>
@@ -2323,7 +2323,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>122</v>
@@ -2358,7 +2358,7 @@
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
       <c r="O11" s="38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P11" s="17" t="s">
         <v>19</v>
@@ -2384,7 +2384,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>122</v>
@@ -2419,7 +2419,7 @@
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
       <c r="O12" s="38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P12" s="17" t="s">
         <v>19</v>
@@ -2445,7 +2445,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>122</v>
@@ -2480,7 +2480,7 @@
         <v>121</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P13" s="17" t="s">
         <v>19</v>
@@ -2506,7 +2506,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>122</v>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="N14" s="26"/>
       <c r="O14" s="38" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P14" s="17" t="s">
         <v>19</v>
@@ -2567,7 +2567,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>122</v>
@@ -2602,7 +2602,7 @@
         <v>50</v>
       </c>
       <c r="O15" s="38" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P15" s="17" t="s">
         <v>19</v>
@@ -2628,7 +2628,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>122</v>
@@ -2663,7 +2663,7 @@
         <v>121</v>
       </c>
       <c r="O16" s="38" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P16" s="17" t="s">
         <v>19</v>
@@ -2689,7 +2689,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>122</v>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H17" s="11">
         <v>15</v>
@@ -2711,7 +2711,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K17" s="24" t="s">
         <v>20</v>
@@ -2724,7 +2724,7 @@
         <v>44</v>
       </c>
       <c r="O17" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P17" s="17" t="s">
         <v>19</v>
@@ -2739,7 +2739,7 @@
         <v>125</v>
       </c>
       <c r="T17" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="U17" s="18" t="s">
         <v>127</v>
@@ -2750,7 +2750,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>122</v>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="N18" s="26"/>
       <c r="O18" s="38" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P18" s="17" t="s">
         <v>19</v>
@@ -2811,7 +2811,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>122</v>
@@ -2872,7 +2872,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>122</v>
@@ -2903,7 +2903,7 @@
       <c r="M20" s="26"/>
       <c r="N20" s="26"/>
       <c r="O20" s="38" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P20" s="17" t="s">
         <v>19</v>
@@ -2929,7 +2929,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>122</v>
@@ -2990,7 +2990,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>122</v>
@@ -3051,7 +3051,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>122</v>
@@ -3062,7 +3062,7 @@
       <c r="E23" s="22"/>
       <c r="F23" s="23"/>
       <c r="G23" s="37" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="H23" s="11">
         <v>21</v>
@@ -3071,7 +3071,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="40" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="K23" s="24" t="s">
         <v>20</v>
@@ -3110,7 +3110,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>122</v>
@@ -3155,7 +3155,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>122</v>
@@ -3214,7 +3214,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>122</v>
@@ -4470,6 +4470,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4484,12 +4490,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
